--- a/data/georgia_census/adjara/shuaxevi/age_dependency.xlsx
+++ b/data/georgia_census/adjara/shuaxevi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558D3799-123C-4499-B027-DE36E6072FAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A07C0F-5235-4B83-8103-F320DD2D9879}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993045C7-382B-4E3D-BDB9-E3D349F2BF6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94AD6DA9-CF5F-409B-B965-FB91F9A69947}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBB6E2-DDB4-4434-94D2-33327BB077D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4004FB2-D770-435F-B3BB-65AEDF881A6F}"/>
 </file>